--- a/analyst/Franzi/rmonize/data_dictionary/DD_HNRS_FRANZI.xlsx
+++ b/analyst/Franzi/rmonize/data_dictionary/DD_HNRS_FRANZI.xlsx
@@ -1,22 +1,282 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\analyst\Franzi\rmonize\data_dictionary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{E1C97C57-C918-43C6-A3D1-BFAD154994D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="83">
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>valueType</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>fe_ff9</t>
+  </si>
+  <si>
+    <t>fe_ff10</t>
+  </si>
+  <si>
+    <t>fe_ff11</t>
+  </si>
+  <si>
+    <t>fe_ff12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fe_ff13 </t>
+  </si>
+  <si>
+    <t>fe_ff6</t>
+  </si>
+  <si>
+    <t>fe_ff23</t>
+  </si>
+  <si>
+    <t>fe_ff7</t>
+  </si>
+  <si>
+    <t>fe_ff14</t>
+  </si>
+  <si>
+    <t>fe_ff15</t>
+  </si>
+  <si>
+    <t>fe_ff8</t>
+  </si>
+  <si>
+    <t>fe_ff1</t>
+  </si>
+  <si>
+    <t>fe_ff2</t>
+  </si>
+  <si>
+    <t>fe_ff3</t>
+  </si>
+  <si>
+    <t>fe_ff16</t>
+  </si>
+  <si>
+    <t>fe_ff4</t>
+  </si>
+  <si>
+    <t>fe_ff5</t>
+  </si>
+  <si>
+    <t>fe_fe4</t>
+  </si>
+  <si>
+    <t>fe_fe3</t>
+  </si>
+  <si>
+    <t>fe_fe2</t>
+  </si>
+  <si>
+    <t>fe_fe1</t>
+  </si>
+  <si>
+    <t>fe_fe6</t>
+  </si>
+  <si>
+    <t>fe_fe5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fe_ff17 </t>
+  </si>
+  <si>
+    <t>fe_ff24</t>
+  </si>
+  <si>
+    <t>fe_ff22</t>
+  </si>
+  <si>
+    <t>fe_ff27</t>
+  </si>
+  <si>
+    <t>fe_ff25</t>
+  </si>
+  <si>
+    <t>fe_ff26</t>
+  </si>
+  <si>
+    <t>fe_ff21</t>
+  </si>
+  <si>
+    <t>ALK_RE</t>
+  </si>
+  <si>
+    <t>ALK_WEIN</t>
+  </si>
+  <si>
+    <t>ALK_Bier</t>
+  </si>
+  <si>
+    <t>ALK_Schnaps</t>
+  </si>
+  <si>
+    <t>fe_ff18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gekochte Kartoffeln </t>
+  </si>
+  <si>
+    <t>frittierte Speisen (z.B. Pommes frites, Kroketten etc.)</t>
+  </si>
+  <si>
+    <t>Frisches Gemüse gekocht</t>
+  </si>
+  <si>
+    <t>Frisches Gemüse/Salat roh</t>
+  </si>
+  <si>
+    <t>Frisches Obst</t>
+  </si>
+  <si>
+    <t>Milch</t>
+  </si>
+  <si>
+    <t>Quark/Joghurt</t>
+  </si>
+  <si>
+    <t>Käse</t>
+  </si>
+  <si>
+    <t>Haferflocken/Müsli/Cornflakes</t>
+  </si>
+  <si>
+    <t>Nudeln/Reis</t>
+  </si>
+  <si>
+    <t>Vollkornbrot/Schwarzbrot</t>
+  </si>
+  <si>
+    <t>Fleisch (ohne Geflügel)</t>
+  </si>
+  <si>
+    <t>Geflügel</t>
+  </si>
+  <si>
+    <t>Wurstwaren/Schinken</t>
+  </si>
+  <si>
+    <t>Bratwurst, Currywurst, Hamburger, Döner Kebab, Pizza</t>
+  </si>
+  <si>
+    <t>Fisch</t>
+  </si>
+  <si>
+    <t>Eier/Eierspeisen</t>
+  </si>
+  <si>
+    <t>Sonnenblumenöl</t>
+  </si>
+  <si>
+    <t>Distelöl</t>
+  </si>
+  <si>
+    <t>Olivenöl</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Margarine</t>
+  </si>
+  <si>
+    <t>Schmalz</t>
+  </si>
+  <si>
+    <t>Süßwaren und Gebäck</t>
+  </si>
+  <si>
+    <t>Obst- und Gemüsesäfte</t>
+  </si>
+  <si>
+    <t>Erfrischungsgetränke</t>
+  </si>
+  <si>
+    <t>Kaffee</t>
+  </si>
+  <si>
+    <t>Tee</t>
+  </si>
+  <si>
+    <t>Tee, andere Sorten (z.B. Grüner Tee, Pfefferminz)</t>
+  </si>
+  <si>
+    <t>Wasser/Mineralwasser</t>
+  </si>
+  <si>
+    <t>Alkohol pro Tag</t>
+  </si>
+  <si>
+    <t>Alkohol aus Wein/Sekt</t>
+  </si>
+  <si>
+    <t>Alkohol aus Bier/Sekt</t>
+  </si>
+  <si>
+    <t>Alkohol aus Schnaps/Likör</t>
+  </si>
+  <si>
+    <t>Salzige Knabbereien (z.B. Nüsse, Kartoffelchips etc.)</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>(fast) Nie</t>
+  </si>
+  <si>
+    <t>1-3 mal im Monat</t>
+  </si>
+  <si>
+    <t>1-3 mal in der Woche</t>
+  </si>
+  <si>
+    <t>4-6 mal in der Woche</t>
+  </si>
+  <si>
+    <t>täglich</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,6 +288,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -53,22 +320,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -110,7 +392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -142,9 +424,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,6 +476,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,33 +669,416 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>valueType</t>
-        </is>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -386,31 +1087,2421 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L218"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B225" sqref="B225"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="4">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="4">
+        <v>3</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="4">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="4">
+        <v>7</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="4">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="4">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="4">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="4">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="4">
+        <v>5</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="4">
+        <v>7</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="4">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="4">
+        <v>2</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="4">
+        <v>3</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="4">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="4">
+        <v>5</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="4">
+        <v>7</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="4">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="4">
+        <v>2</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="4">
+        <v>3</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="4">
+        <v>4</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="4">
+        <v>5</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="4">
+        <v>7</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="4">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="4">
+        <v>2</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="4">
+        <v>3</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="4">
+        <v>4</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="4">
+        <v>5</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="4">
+        <v>7</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="4">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="4">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="4">
+        <v>2</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="4">
+        <v>3</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="4">
+        <v>4</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="4">
+        <v>5</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="4">
+        <v>7</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" s="4">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="4">
+        <v>1</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="4">
+        <v>2</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="4">
+        <v>3</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="4">
+        <v>4</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="4">
+        <v>5</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="4">
+        <v>7</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="4">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="4">
+        <v>1</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="4">
+        <v>2</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="4">
+        <v>3</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="4">
+        <v>4</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="4">
+        <v>5</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="4">
+        <v>7</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="4">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="4">
+        <v>1</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="4">
+        <v>2</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="4">
+        <v>3</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="4">
+        <v>4</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="4">
+        <v>5</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="4">
+        <v>7</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="4">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="4">
+        <v>1</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="4">
+        <v>2</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" s="4">
+        <v>3</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="4">
+        <v>4</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="4">
+        <v>5</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" s="4">
+        <v>7</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" s="4">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" s="4">
+        <v>1</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" s="4">
+        <v>2</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102" s="4">
+        <v>3</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" s="4">
+        <v>4</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" s="4">
+        <v>5</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>19</v>
+      </c>
+      <c r="B105" s="4">
+        <v>7</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" s="4">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" s="4">
+        <v>1</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" s="4">
+        <v>2</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="4">
+        <v>3</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" s="4">
+        <v>4</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="4">
+        <v>5</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" s="4">
+        <v>7</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" s="4">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" s="4">
+        <v>1</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" s="4">
+        <v>2</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" s="4">
+        <v>3</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" s="4">
+        <v>4</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" s="4">
+        <v>5</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" s="4">
+        <v>7</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" s="4">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121" s="4">
+        <v>1</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>22</v>
+      </c>
+      <c r="B122" s="4">
+        <v>2</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" s="4">
+        <v>3</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>22</v>
+      </c>
+      <c r="B124" s="4">
+        <v>4</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>22</v>
+      </c>
+      <c r="B125" s="4">
+        <v>5</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" s="4">
+        <v>7</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>22</v>
+      </c>
+      <c r="B127" s="4">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" s="4">
+        <v>1</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129" s="4">
+        <v>2</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>27</v>
+      </c>
+      <c r="B130" s="4">
+        <v>3</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>27</v>
+      </c>
+      <c r="B131" s="4">
+        <v>4</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>27</v>
+      </c>
+      <c r="B132" s="4">
+        <v>5</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>27</v>
+      </c>
+      <c r="B133" s="4">
+        <v>7</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>27</v>
+      </c>
+      <c r="B134" s="4">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>26</v>
+      </c>
+      <c r="B135" s="4">
+        <v>1</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>26</v>
+      </c>
+      <c r="B136" s="4">
+        <v>2</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>26</v>
+      </c>
+      <c r="B137" s="4">
+        <v>3</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="4">
+        <v>4</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>26</v>
+      </c>
+      <c r="B139" s="4">
+        <v>5</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140" s="4">
+        <v>7</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>26</v>
+      </c>
+      <c r="B141" s="4">
+        <v>8</v>
+      </c>
+      <c r="C141" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>25</v>
+      </c>
+      <c r="B142" s="4">
+        <v>1</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>25</v>
+      </c>
+      <c r="B143" s="4">
+        <v>2</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>25</v>
+      </c>
+      <c r="B144" s="4">
+        <v>3</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>25</v>
+      </c>
+      <c r="B145" s="4">
+        <v>4</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>25</v>
+      </c>
+      <c r="B146" s="4">
+        <v>5</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>25</v>
+      </c>
+      <c r="B147" s="4">
+        <v>7</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>25</v>
+      </c>
+      <c r="B148" s="4">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>24</v>
+      </c>
+      <c r="B149" s="4">
+        <v>1</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>24</v>
+      </c>
+      <c r="B150" s="4">
+        <v>2</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>24</v>
+      </c>
+      <c r="B151" s="4">
+        <v>3</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152" s="4">
+        <v>4</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153" s="4">
+        <v>5</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>24</v>
+      </c>
+      <c r="B154" s="4">
+        <v>7</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>24</v>
+      </c>
+      <c r="B155" s="4">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>23</v>
+      </c>
+      <c r="B156" s="4">
+        <v>1</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>23</v>
+      </c>
+      <c r="B157" s="4">
+        <v>2</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>23</v>
+      </c>
+      <c r="B158" s="4">
+        <v>3</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>23</v>
+      </c>
+      <c r="B159" s="4">
+        <v>4</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>23</v>
+      </c>
+      <c r="B160" s="4">
+        <v>5</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" s="4">
+        <v>7</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>23</v>
+      </c>
+      <c r="B162" s="4">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B163" s="4">
+        <v>1</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B164" s="4">
+        <v>2</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B165" s="4">
+        <v>3</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B166" s="4">
+        <v>4</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B167" s="4">
+        <v>5</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B168" s="4">
+        <v>7</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B169" s="4">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B170" s="4">
+        <v>1</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B171" s="4">
+        <v>2</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B172" s="4">
+        <v>3</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B173" s="4">
+        <v>4</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B174" s="4">
+        <v>5</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B175" s="4">
+        <v>7</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B176" s="4">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>29</v>
+      </c>
+      <c r="B177" s="4">
+        <v>1</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>29</v>
+      </c>
+      <c r="B178" s="4">
+        <v>2</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>29</v>
+      </c>
+      <c r="B179" s="4">
+        <v>3</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>29</v>
+      </c>
+      <c r="B180" s="4">
+        <v>4</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B181" s="4">
+        <v>5</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>29</v>
+      </c>
+      <c r="B182" s="4">
+        <v>7</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>29</v>
+      </c>
+      <c r="B183" s="4">
+        <v>8</v>
+      </c>
+      <c r="C183" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>32</v>
+      </c>
+      <c r="B184" s="4">
+        <v>1</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>32</v>
+      </c>
+      <c r="B185" s="4">
+        <v>2</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>32</v>
+      </c>
+      <c r="B186" s="4">
+        <v>3</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>32</v>
+      </c>
+      <c r="B187" s="4">
+        <v>4</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>32</v>
+      </c>
+      <c r="B188" s="4">
+        <v>5</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>32</v>
+      </c>
+      <c r="B189" s="4">
+        <v>7</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>32</v>
+      </c>
+      <c r="B190" s="4">
+        <v>8</v>
+      </c>
+      <c r="C190" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>33</v>
+      </c>
+      <c r="B191" s="4">
+        <v>1</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>33</v>
+      </c>
+      <c r="B192" s="4">
+        <v>2</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>33</v>
+      </c>
+      <c r="B193" s="4">
+        <v>3</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>33</v>
+      </c>
+      <c r="B194" s="4">
+        <v>4</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>33</v>
+      </c>
+      <c r="B195" s="4">
+        <v>5</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>33</v>
+      </c>
+      <c r="B196" s="4">
+        <v>7</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>33</v>
+      </c>
+      <c r="B197" s="4">
+        <v>8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>31</v>
+      </c>
+      <c r="B198" s="4">
+        <v>1</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>31</v>
+      </c>
+      <c r="B199" s="4">
+        <v>2</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>31</v>
+      </c>
+      <c r="B200" s="4">
+        <v>3</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>31</v>
+      </c>
+      <c r="B201" s="4">
+        <v>4</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>31</v>
+      </c>
+      <c r="B202" s="4">
+        <v>5</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>31</v>
+      </c>
+      <c r="B203" s="4">
+        <v>7</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>31</v>
+      </c>
+      <c r="B204" s="4">
+        <v>8</v>
+      </c>
+      <c r="C204" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B205" s="4">
+        <v>1</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B206" s="4">
+        <v>2</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B207" s="4">
+        <v>3</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B208" s="4">
+        <v>4</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B209" s="4">
+        <v>5</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B210" s="4">
+        <v>7</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B211" s="4">
+        <v>8</v>
+      </c>
+      <c r="C211" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B212" s="4">
+        <v>1</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B213" s="4">
+        <v>2</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B214" s="4">
+        <v>3</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B215" s="4">
+        <v>4</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B216" s="4">
+        <v>5</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B217" s="4">
+        <v>7</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B218" s="4">
+        <v>8</v>
+      </c>
+      <c r="C218" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>